--- a/web_apps/pandas_simple.xlsx
+++ b/web_apps/pandas_simple.xlsx
@@ -193,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,18 +203,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0E70A6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,9 +242,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,6 +556,30 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
@@ -659,85 +668,85 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>3200</v>
       </c>
-      <c r="E2" s="3">
-        <v>250</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2">
+        <v>250</v>
+      </c>
+      <c r="F2">
         <v>6000</v>
       </c>
-      <c r="G2" s="3">
-        <v>40</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2">
         <v>-0.0002754637662907977</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2">
         <v>0.01581497301125556</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <v>-0.5874603132489113</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2">
         <v>20</v>
       </c>
-      <c r="P2" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q2" s="3">
+      <c r="P2">
+        <v>250</v>
+      </c>
+      <c r="Q2">
         <v>6</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2">
         <v>8</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2">
         <v>23.4</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" s="3">
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2">
         <v>2375.150634299303</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2">
         <v>4159.027578653453</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2">
         <v>1866.106036232337</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2">
         <v>3916.336849675763</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2">
         <v>12</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2">
         <v>300</v>
       </c>
     </row>
@@ -745,85 +754,85 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>3200</v>
       </c>
-      <c r="E3" s="3">
-        <v>250</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3">
+        <v>250</v>
+      </c>
+      <c r="F3">
         <v>6000</v>
       </c>
-      <c r="G3" s="3">
-        <v>40</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
         <v>-0.0004881663971677444</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3">
         <v>0.1090992672540578</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <v>-1.132673211161395</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3">
         <v>20</v>
       </c>
-      <c r="P3" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q3" s="3">
+      <c r="P3">
+        <v>250</v>
+      </c>
+      <c r="Q3">
         <v>6</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3">
         <v>8</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3">
         <v>23.4</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W3" s="3">
+      <c r="T3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3">
         <v>3072.118031537683</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3">
         <v>4159.027578653453</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3">
         <v>1866.106036232337</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3">
         <v>3916.336849675763</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3">
         <v>12</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3">
         <v>300</v>
       </c>
     </row>
@@ -831,85 +840,85 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>3200</v>
       </c>
-      <c r="E4" s="3">
-        <v>250</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4">
+        <v>250</v>
+      </c>
+      <c r="F4">
         <v>6000</v>
       </c>
-      <c r="G4" s="3">
-        <v>40</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4">
         <v>-0.0006908631798206757</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <v>0.2625055883014761</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>-1.694066374898871</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4">
         <v>20</v>
       </c>
-      <c r="P4" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q4" s="3">
+      <c r="P4">
+        <v>250</v>
+      </c>
+      <c r="Q4">
         <v>6</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4">
         <v>8</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4">
         <v>23.4</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W4" s="3">
+      <c r="T4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4">
         <v>3399.295890499155</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4">
         <v>4159.027578653453</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4">
         <v>1866.106036232337</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4">
         <v>3916.336849675763</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4">
         <v>12</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4">
         <v>300</v>
       </c>
     </row>
@@ -917,85 +926,85 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>3200</v>
       </c>
-      <c r="E5" s="3">
-        <v>250</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5">
+        <v>250</v>
+      </c>
+      <c r="F5">
         <v>6000</v>
       </c>
-      <c r="G5" s="3">
-        <v>40</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5">
         <v>-0.0008861542007671169</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>0.4094029342926865</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>-2.235534495167066</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5">
         <v>20</v>
       </c>
-      <c r="P5" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q5" s="3">
+      <c r="P5">
+        <v>250</v>
+      </c>
+      <c r="Q5">
         <v>6</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5">
         <v>8</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5">
         <v>23.4</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W5" s="3">
+      <c r="T5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5">
         <v>3397.23558503994</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5">
         <v>4159.027578653453</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5">
         <v>1866.106036232337</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5">
         <v>3916.336849675763</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5">
         <v>12</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5">
         <v>300</v>
       </c>
     </row>
@@ -1003,85 +1012,85 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>3200</v>
       </c>
-      <c r="E6" s="3">
-        <v>250</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6">
+        <v>250</v>
+      </c>
+      <c r="F6">
         <v>6000</v>
       </c>
-      <c r="G6" s="3">
-        <v>40</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
         <v>-0.001078058291271578</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>0.5053859705323839</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>-2.725263200777347</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" t="s">
         <v>49</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6">
         <v>20</v>
       </c>
-      <c r="P6" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="P6">
+        <v>250</v>
+      </c>
+      <c r="Q6">
         <v>6</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6">
         <v>8</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6">
         <v>23.4</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W6" s="3">
+      <c r="T6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V6" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6">
         <v>3184.898033042683</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6">
         <v>4159.027578653453</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6">
         <v>1866.106036232337</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6">
         <v>3916.336849675763</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6">
         <v>12</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6">
         <v>300</v>
       </c>
     </row>
@@ -1089,85 +1098,85 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>3200</v>
       </c>
-      <c r="E7" s="3">
-        <v>250</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7">
+        <v>250</v>
+      </c>
+      <c r="F7">
         <v>6000</v>
       </c>
-      <c r="G7" s="3">
-        <v>40</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="H7">
         <v>-0.001265759579098352</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>0.5370544094546084</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>-3.146651962671218</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7">
         <v>20</v>
       </c>
-      <c r="P7" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q7" s="3">
+      <c r="P7">
+        <v>250</v>
+      </c>
+      <c r="Q7">
         <v>6</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7">
         <v>8</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7">
         <v>23.4</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W7" s="3">
+      <c r="T7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7">
         <v>2954.437716336751</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7">
         <v>4159.027578653453</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7">
         <v>1866.106036232337</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7">
         <v>3916.336849675763</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7">
         <v>12</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7">
         <v>300</v>
       </c>
     </row>
@@ -1175,85 +1184,85 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
         <v>3200</v>
       </c>
-      <c r="E8" s="3">
-        <v>250</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8">
+        <v>250</v>
+      </c>
+      <c r="F8">
         <v>6000</v>
       </c>
-      <c r="G8" s="3">
-        <v>40</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8">
+        <v>40</v>
+      </c>
+      <c r="H8">
         <v>-0.001440151448320641</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>0.5298260041548449</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>-3.465739408500959</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8">
         <v>20</v>
       </c>
-      <c r="P8" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="P8">
+        <v>250</v>
+      </c>
+      <c r="Q8">
         <v>6</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8">
         <v>8</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8">
         <v>23.4</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="T8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8">
         <v>2974.506153169274</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8">
         <v>4159.027578653453</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8">
         <v>1866.106036232337</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8">
         <v>3916.336849675763</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8">
         <v>12</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8">
         <v>300</v>
       </c>
     </row>
@@ -1261,85 +1270,85 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>3200</v>
       </c>
-      <c r="E9" s="3">
-        <v>250</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9">
+        <v>250</v>
+      </c>
+      <c r="F9">
         <v>6000</v>
       </c>
-      <c r="G9" s="3">
-        <v>40</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9">
         <v>-0.001625376838353105</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9">
         <v>0.4714176224396878</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9">
         <v>-3.685453729290548</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="4" t="s">
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9">
         <v>20</v>
       </c>
-      <c r="P9" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="P9">
+        <v>250</v>
+      </c>
+      <c r="Q9">
         <v>6</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9">
         <v>8</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9">
         <v>23.4</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="T9" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" t="s">
+        <v>51</v>
+      </c>
+      <c r="V9" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9">
         <v>3447.387532635651</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9">
         <v>4159.027578653453</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9">
         <v>1866.106036232337</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9">
         <v>3916.336849675763</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9">
         <v>12</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9">
         <v>300</v>
       </c>
     </row>
@@ -1347,85 +1356,85 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>3200</v>
       </c>
-      <c r="E10" s="3">
-        <v>250</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10">
+        <v>250</v>
+      </c>
+      <c r="F10">
         <v>6000</v>
       </c>
-      <c r="G10" s="3">
-        <v>40</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10">
         <v>-0.001786727221922589</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>0.4035886808912186</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10">
         <v>-3.860651163575102</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10">
         <v>20</v>
       </c>
-      <c r="P10" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="P10">
+        <v>250</v>
+      </c>
+      <c r="Q10">
         <v>6</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10">
         <v>8</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10">
         <v>23.4</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="T10" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" t="s">
+        <v>51</v>
+      </c>
+      <c r="V10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W10">
         <v>4058.263734553283</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10">
         <v>4159.027578653453</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10">
         <v>2205.398042820034</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10">
         <v>4136.876653957766</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10">
         <v>12</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10">
         <v>250</v>
       </c>
     </row>
@@ -1433,85 +1442,85 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>3200</v>
       </c>
-      <c r="E11" s="3">
-        <v>250</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11">
+        <v>250</v>
+      </c>
+      <c r="F11">
         <v>6000</v>
       </c>
-      <c r="G11" s="3">
-        <v>40</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11">
+        <v>40</v>
+      </c>
+      <c r="H11">
         <v>-0.001927267377941562</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11">
         <v>0.3423616229165583</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11">
         <v>-4.051679894314677</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11">
         <v>20</v>
       </c>
-      <c r="P11" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q11" s="3">
+      <c r="P11">
+        <v>250</v>
+      </c>
+      <c r="Q11">
         <v>6</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11">
         <v>8</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11">
         <v>23.4</v>
       </c>
-      <c r="T11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W11" s="3">
+      <c r="T11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11">
         <v>4733.831983517965</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11">
         <v>4159.027578653453</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11">
         <v>3317.521842190821</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11">
         <v>4859.757123548779</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11">
         <v>16</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB11">
         <v>300</v>
       </c>
     </row>
@@ -1519,85 +1528,85 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>4200</v>
       </c>
-      <c r="E12" s="3">
-        <v>250</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12">
+        <v>250</v>
+      </c>
+      <c r="F12">
         <v>6000</v>
       </c>
-      <c r="G12" s="3">
-        <v>40</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12">
+        <v>40</v>
+      </c>
+      <c r="H12">
         <v>-0.002011950861165864</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12">
         <v>0.238855518200694</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12">
         <v>-4.255769018746197</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="4" t="s">
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12">
         <v>20</v>
       </c>
-      <c r="P12" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="P12">
+        <v>250</v>
+      </c>
+      <c r="Q12">
         <v>6</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12">
         <v>8</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12">
         <v>23.4</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W12" s="3">
+      <c r="T12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" t="s">
+        <v>51</v>
+      </c>
+      <c r="W12">
         <v>4684.911674618041</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12">
         <v>3893.39625519931</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12">
         <v>3906.346065263651</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12">
         <v>5069.832508300925</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA12">
         <v>16</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB12">
         <v>250</v>
       </c>
     </row>
@@ -1605,85 +1614,85 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>3000</v>
       </c>
-      <c r="E13" s="3">
-        <v>250</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13">
+        <v>250</v>
+      </c>
+      <c r="F13">
         <v>6000</v>
       </c>
-      <c r="G13" s="3">
-        <v>40</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
         <v>-0.001978030979169441</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13">
         <v>0.05189094860528876</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13">
         <v>-4.157403367125479</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13">
         <v>20</v>
       </c>
-      <c r="P13" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q13" s="3">
+      <c r="P13">
+        <v>250</v>
+      </c>
+      <c r="Q13">
         <v>6</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13">
         <v>8</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13">
         <v>23.4</v>
       </c>
-      <c r="T13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W13" s="3">
+      <c r="T13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W13">
         <v>3676.011561120997</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13">
         <v>4212.153843344282</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13">
         <v>1809.557368467721</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z13">
         <v>3914.112287677802</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA13">
         <v>12</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AB13">
         <v>300</v>
       </c>
     </row>
@@ -1691,85 +1700,85 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
-        <v>250</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14">
+        <v>250</v>
+      </c>
+      <c r="F14">
         <v>6000</v>
       </c>
-      <c r="G14" s="3">
-        <v>40</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="H14">
         <v>-0.001861463971826449</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14">
         <v>-0.0895249141515464</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14">
         <v>-3.48939428289281</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="4" t="s">
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14">
         <v>20</v>
       </c>
-      <c r="P14" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="P14">
+        <v>250</v>
+      </c>
+      <c r="Q14">
         <v>6</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14">
         <v>23.4</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="T14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U14" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" t="s">
+        <v>51</v>
+      </c>
+      <c r="W14">
         <v>2019.941149407425</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14">
         <v>4212.153843344282</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14">
         <v>1809.557368467721</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14">
         <v>3914.112287677802</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14">
         <v>12</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14">
         <v>300</v>
       </c>
     </row>
@@ -1777,85 +1786,85 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
-        <v>250</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15">
+        <v>250</v>
+      </c>
+      <c r="F15">
         <v>6000</v>
       </c>
-      <c r="G15" s="3">
-        <v>40</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15">
         <v>-0.001833984861433938</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15">
         <v>0.05583513711380506</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15">
         <v>-3.354468744699418</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="4" t="s">
+      <c r="K15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15">
         <v>20</v>
       </c>
-      <c r="P15" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="P15">
+        <v>250</v>
+      </c>
+      <c r="Q15">
         <v>6</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15">
         <v>23.4</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="T15" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" t="s">
+        <v>51</v>
+      </c>
+      <c r="V15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15">
         <v>1981.30947970974</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15">
         <v>4743.416490252569</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15">
         <v>1628.601631620949</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15">
         <v>4141.811779217786</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA15">
         <v>12</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AB15">
         <v>300</v>
       </c>
     </row>
@@ -1863,85 +1872,85 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>3200</v>
       </c>
-      <c r="E16" s="3">
-        <v>250</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E16">
+        <v>250</v>
+      </c>
+      <c r="F16">
         <v>8000</v>
       </c>
-      <c r="G16" s="3">
-        <v>40</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="G16">
+        <v>40</v>
+      </c>
+      <c r="H16">
         <v>-0.003166790611152689</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16">
         <v>-1.093853259491922</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16">
         <v>-2.229003563217248</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="4" t="s">
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16">
         <v>20</v>
       </c>
-      <c r="P16" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q16" s="3">
+      <c r="P16">
+        <v>250</v>
+      </c>
+      <c r="Q16">
         <v>6</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16">
         <v>8</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16">
         <v>23.4</v>
       </c>
-      <c r="T16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W16" s="3">
+      <c r="T16" t="s">
+        <v>51</v>
+      </c>
+      <c r="U16" t="s">
+        <v>51</v>
+      </c>
+      <c r="V16" t="s">
+        <v>51</v>
+      </c>
+      <c r="W16">
         <v>-1992.669207810745</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16">
         <v>5828.710183222357</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16">
         <v>2488.141381643116</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16">
         <v>5405.953517162558</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA16">
         <v>12</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB16">
         <v>300</v>
       </c>
     </row>
@@ -1949,85 +1958,85 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
-        <v>250</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17">
+        <v>250</v>
+      </c>
+      <c r="F17">
         <v>8000</v>
       </c>
-      <c r="G17" s="3">
-        <v>40</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="H17">
         <v>-0.003588783392113013</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17">
         <v>-1.914179763412835</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17">
         <v>-4.365549685817098</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="4" t="s">
+      <c r="K17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17">
         <v>20</v>
       </c>
-      <c r="P17" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="P17">
+        <v>250</v>
+      </c>
+      <c r="Q17">
         <v>6</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17">
         <v>8</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17">
         <v>23.4</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="T17" t="s">
+        <v>51</v>
+      </c>
+      <c r="U17" t="s">
+        <v>51</v>
+      </c>
+      <c r="V17" t="s">
+        <v>51</v>
+      </c>
+      <c r="W17">
         <v>-1538.610529247949</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17">
         <v>5828.710183222357</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17">
         <v>2488.141381643116</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z17">
         <v>5405.953517162558</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA17">
         <v>12</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AB17">
         <v>300</v>
       </c>
     </row>
@@ -2035,85 +2044,85 @@
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>3200</v>
       </c>
-      <c r="E18" s="3">
-        <v>250</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18">
+        <v>250</v>
+      </c>
+      <c r="F18">
         <v>8000</v>
       </c>
-      <c r="G18" s="3">
-        <v>40</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="H18">
         <v>-0.004010415520372682</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18">
         <v>-2.633037379139336</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18">
         <v>-6.285018266074824</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" s="4" t="s">
+      <c r="K18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" t="s">
         <v>49</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18">
         <v>20</v>
       </c>
-      <c r="P18" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="P18">
+        <v>250</v>
+      </c>
+      <c r="Q18">
         <v>6</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18">
         <v>8</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18">
         <v>23.4</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="T18" t="s">
+        <v>51</v>
+      </c>
+      <c r="U18" t="s">
+        <v>51</v>
+      </c>
+      <c r="V18" t="s">
+        <v>51</v>
+      </c>
+      <c r="W18">
         <v>-1229.305967669876</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18">
         <v>5828.710183222357</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18">
         <v>2488.141381643116</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18">
         <v>5405.953517162558</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18">
         <v>12</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB18">
         <v>300</v>
       </c>
     </row>
@@ -2121,85 +2130,85 @@
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>4200</v>
       </c>
-      <c r="E19" s="3">
-        <v>250</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="E19">
+        <v>250</v>
+      </c>
+      <c r="F19">
         <v>8000</v>
       </c>
-      <c r="G19" s="3">
-        <v>40</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G19">
+        <v>40</v>
+      </c>
+      <c r="H19">
         <v>-0.004455985492086137</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19">
         <v>-3.601712102292889</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19">
         <v>-8.670010434366354</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="4" t="s">
+      <c r="K19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19">
         <v>20</v>
       </c>
-      <c r="P19" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q19" s="3">
+      <c r="P19">
+        <v>250</v>
+      </c>
+      <c r="Q19">
         <v>6</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19">
         <v>8</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19">
         <v>23.4</v>
       </c>
-      <c r="T19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W19" s="3">
+      <c r="T19" t="s">
+        <v>51</v>
+      </c>
+      <c r="U19" t="s">
+        <v>51</v>
+      </c>
+      <c r="V19" t="s">
+        <v>51</v>
+      </c>
+      <c r="W19">
         <v>-1158.563838474412</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19">
         <v>5563.078859768213</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19">
         <v>2412.743157956962</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z19">
         <v>5184.284311521364</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="AA19">
         <v>12</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AB19">
         <v>300</v>
       </c>
     </row>
@@ -2207,85 +2216,85 @@
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
-        <v>250</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20">
+        <v>250</v>
+      </c>
+      <c r="F20">
         <v>8000</v>
       </c>
-      <c r="G20" s="3">
-        <v>40</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G20">
+        <v>40</v>
+      </c>
+      <c r="H20">
         <v>-0.004447999018088597</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20">
         <v>-2.713545321975825</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20">
         <v>-7.000758306294045</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="4" t="s">
+      <c r="K20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20">
         <v>20</v>
       </c>
-      <c r="P20" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="P20">
+        <v>250</v>
+      </c>
+      <c r="Q20">
         <v>6</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20">
         <v>8</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20">
         <v>23.4</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="T20" t="s">
+        <v>51</v>
+      </c>
+      <c r="U20" t="s">
+        <v>51</v>
+      </c>
+      <c r="V20" t="s">
+        <v>51</v>
+      </c>
+      <c r="W20">
         <v>-1275.186584990664</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20">
         <v>5881.836447913186</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20">
         <v>2412.743157956962</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z20">
         <v>5391.476743815596</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA20">
         <v>12</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AB20">
         <v>300</v>
       </c>
     </row>
@@ -2293,85 +2302,85 @@
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>3000</v>
       </c>
-      <c r="E21" s="3">
-        <v>250</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21">
+        <v>250</v>
+      </c>
+      <c r="F21">
         <v>8000</v>
       </c>
-      <c r="G21" s="3">
-        <v>40</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21">
+        <v>40</v>
+      </c>
+      <c r="H21">
         <v>-0.004439192300212327</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21">
         <v>-1.411281937455024</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21">
         <v>-5.728155551868423</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="4" t="s">
+      <c r="K21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21">
         <v>20</v>
       </c>
-      <c r="P21" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="P21">
+        <v>250</v>
+      </c>
+      <c r="Q21">
         <v>6</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21">
         <v>23.4</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="T21" t="s">
+        <v>51</v>
+      </c>
+      <c r="U21" t="s">
+        <v>51</v>
+      </c>
+      <c r="V21" t="s">
+        <v>51</v>
+      </c>
+      <c r="W21">
         <v>650.7482987877075</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21">
         <v>5881.836447913186</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21">
         <v>2412.743157956962</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21">
         <v>5391.476743815596</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21">
         <v>12</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21">
         <v>300</v>
       </c>
     </row>
@@ -2379,85 +2388,85 @@
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
-        <v>250</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22">
+        <v>250</v>
+      </c>
+      <c r="F22">
         <v>8000</v>
       </c>
-      <c r="G22" s="3">
-        <v>40</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22">
+        <v>40</v>
+      </c>
+      <c r="H22">
         <v>-0.004151259608204196</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22">
         <v>-0.3282868847205682</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22">
         <v>-4.478674993568031</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22" s="4" t="s">
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" t="s">
         <v>49</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22">
         <v>20</v>
       </c>
-      <c r="P22" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="P22">
+        <v>250</v>
+      </c>
+      <c r="Q22">
         <v>6</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22">
         <v>23.4</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="T22" t="s">
+        <v>51</v>
+      </c>
+      <c r="U22" t="s">
+        <v>51</v>
+      </c>
+      <c r="V22" t="s">
+        <v>51</v>
+      </c>
+      <c r="W22">
         <v>610.5113680681882</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22">
         <v>6413.099094821473</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22">
         <v>2171.468842161265</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22">
         <v>5579.969159038779</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AA22">
         <v>12</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AB22">
         <v>300</v>
       </c>
     </row>
@@ -2465,85 +2474,85 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23">
         <v>13333</v>
       </c>
-      <c r="G23" s="3">
-        <v>40</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="G23">
+        <v>40</v>
+      </c>
+      <c r="H23">
         <v>-0.001544647298836921</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23">
         <v>-0.08588443271881041</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23">
         <v>-0.5670800892399027</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="4" t="s">
+      <c r="K23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" t="s">
         <v>49</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23">
         <v>16</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23">
         <v>6</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23">
         <v>8</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23">
         <v>23.4</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="T23" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23" t="s">
+        <v>51</v>
+      </c>
+      <c r="V23" t="s">
+        <v>51</v>
+      </c>
+      <c r="W23">
         <v>261.6450455352434</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X23">
         <v>8224.735078644273</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23">
         <v>4146.798630180959</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="Z23">
         <v>8041.4969107364</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AA23">
         <v>12</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AB23">
         <v>300</v>
       </c>
     </row>
@@ -2551,85 +2560,85 @@
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>3200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>13333</v>
       </c>
-      <c r="G24" s="3">
-        <v>40</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24">
+        <v>40</v>
+      </c>
+      <c r="H24">
         <v>-0.001774566641396488</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24">
         <v>-0.2838826571453179</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24">
         <v>-1.20451602656423</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" s="4" t="s">
+      <c r="K24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24">
         <v>16</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24">
         <v>6</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24">
         <v>8</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24">
         <v>23.4</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="T24" t="s">
+        <v>51</v>
+      </c>
+      <c r="U24" t="s">
+        <v>51</v>
+      </c>
+      <c r="V24" t="s">
+        <v>51</v>
+      </c>
+      <c r="W24">
         <v>481.4809336359717</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X24">
         <v>8224.735078644273</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24">
         <v>4146.798630180959</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z24">
         <v>8041.4969107364</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA24">
         <v>12</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AB24">
         <v>300</v>
       </c>
     </row>
@@ -2637,85 +2646,85 @@
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>3200</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25">
         <v>200</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>13333</v>
       </c>
-      <c r="G25" s="3">
-        <v>40</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25">
+        <v>40</v>
+      </c>
+      <c r="H25">
         <v>-0.002003844303429566</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25">
         <v>-0.4644162277528943</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25">
         <v>-1.773560137411677</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" s="4" t="s">
+      <c r="K25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25">
         <v>16</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25">
         <v>200</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25">
         <v>6</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25">
         <v>8</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25">
         <v>23.4</v>
       </c>
-      <c r="T25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W25" s="3">
+      <c r="T25" t="s">
+        <v>51</v>
+      </c>
+      <c r="U25" t="s">
+        <v>51</v>
+      </c>
+      <c r="V25" t="s">
+        <v>51</v>
+      </c>
+      <c r="W25">
         <v>613.3822453293581</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X25">
         <v>8224.735078644273</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25">
         <v>4146.798630180959</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z25">
         <v>8041.4969107364</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AA25">
         <v>12</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AB25">
         <v>300</v>
       </c>
     </row>
@@ -2723,85 +2732,85 @@
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>4200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>13333</v>
       </c>
-      <c r="G26" s="3">
-        <v>40</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="G26">
+        <v>40</v>
+      </c>
+      <c r="H26">
         <v>-0.002256961945676639</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26">
         <v>-0.5797215296085214</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26">
         <v>-2.386173950960452</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" s="5" t="s">
+      <c r="K26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" t="s">
         <v>50</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26">
         <v>16</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26">
         <v>6</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26">
         <v>8</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26">
         <v>23.4</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="T26" t="s">
+        <v>51</v>
+      </c>
+      <c r="U26" t="s">
+        <v>51</v>
+      </c>
+      <c r="V26" t="s">
+        <v>51</v>
+      </c>
+      <c r="W26">
         <v>904.6395279701742</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26">
         <v>8012.230019880959</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y26">
         <v>4021.138065630021</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z26">
         <v>7821.689255582137</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA26">
         <v>12</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AB26">
         <v>300</v>
       </c>
     </row>
@@ -2809,85 +2818,85 @@
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27">
         <v>13333</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27">
         <v>32</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27">
         <v>-0.0006038081262178255</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27">
         <v>-0.2884253469904058</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27">
         <v>-0.6725320600028373</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="4" t="s">
+      <c r="K27" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27">
         <v>0.007919595949289333</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27">
         <v>0.003959797974644666</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27">
         <v>16</v>
       </c>
-      <c r="P27" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="P27">
+        <v>250</v>
+      </c>
+      <c r="Q27">
         <v>4.8</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27">
         <v>6.4</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27">
         <v>18.72</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="T27" t="s">
+        <v>51</v>
+      </c>
+      <c r="U27" t="s">
+        <v>51</v>
+      </c>
+      <c r="V27" t="s">
+        <v>51</v>
+      </c>
+      <c r="W27">
         <v>658.1501658834328</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X27">
         <v>7394.440753666861</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y27">
         <v>4021.138065630021</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="Z27">
         <v>7420.126232542974</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AA27">
         <v>12</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AB27">
         <v>300</v>
       </c>
     </row>
@@ -2895,85 +2904,85 @@
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>3000</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <v>200</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28">
         <v>13333</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28">
         <v>32</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28">
         <v>-0.0004667020232387768</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28">
         <v>-0.2165309413346591</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28">
         <v>-0.5494386193572591</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="4" t="s">
+      <c r="K28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" t="s">
         <v>49</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28">
         <v>0.007919595949289333</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28">
         <v>0.003959797974644666</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28">
         <v>16</v>
       </c>
-      <c r="P28" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q28" s="3">
+      <c r="P28">
+        <v>250</v>
+      </c>
+      <c r="Q28">
         <v>4.8</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28">
         <v>6.4</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28">
         <v>18.72</v>
       </c>
-      <c r="T28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W28" s="3">
+      <c r="T28" t="s">
+        <v>51</v>
+      </c>
+      <c r="U28" t="s">
+        <v>51</v>
+      </c>
+      <c r="V28" t="s">
+        <v>51</v>
+      </c>
+      <c r="W28">
         <v>994.6550209281922</v>
       </c>
-      <c r="X28" s="3">
+      <c r="X28">
         <v>7394.440753666861</v>
       </c>
-      <c r="Y28" s="3">
+      <c r="Y28">
         <v>4021.138065630021</v>
       </c>
-      <c r="Z28" s="3">
+      <c r="Z28">
         <v>7420.126232542974</v>
       </c>
-      <c r="AA28" s="3">
+      <c r="AA28">
         <v>12</v>
       </c>
-      <c r="AB28" s="3">
+      <c r="AB28">
         <v>300</v>
       </c>
     </row>
@@ -2981,85 +2990,85 @@
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>1000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29">
         <v>200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29">
         <v>13333</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29">
         <v>32</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29">
         <v>-0.000205818603764611</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29">
         <v>-0.08475840418035761</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29">
         <v>-0.257814465184434</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="4" t="s">
+      <c r="K29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29">
         <v>0.007919595949289333</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29">
         <v>0.003959797974644666</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29">
         <v>16</v>
       </c>
-      <c r="P29" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="P29">
+        <v>250</v>
+      </c>
+      <c r="Q29">
         <v>4.8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29">
         <v>6.4</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29">
         <v>18.72</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W29" s="3">
+      <c r="T29" t="s">
+        <v>51</v>
+      </c>
+      <c r="U29" t="s">
+        <v>51</v>
+      </c>
+      <c r="V29" t="s">
+        <v>51</v>
+      </c>
+      <c r="W29">
         <v>687.6445482377277</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29">
         <v>7774.581359232748</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29">
         <v>3619.024259067019</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29">
         <v>7405.843651894849</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AA29">
         <v>12</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AB29">
         <v>300</v>
       </c>
     </row>
@@ -3067,85 +3076,85 @@
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>3200</v>
       </c>
-      <c r="E30" s="3">
-        <v>250</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30">
+        <v>250</v>
+      </c>
+      <c r="F30">
         <v>3000</v>
       </c>
-      <c r="G30" s="3">
-        <v>40</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="G30">
+        <v>40</v>
+      </c>
+      <c r="H30">
         <v>-0.0002679762370199952</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30">
         <v>0.356935752806458</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30">
         <v>-0.6032158451072793</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L30" s="4" t="s">
+      <c r="K30" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" t="s">
         <v>49</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30">
         <v>20</v>
       </c>
-      <c r="P30" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q30" s="3">
+      <c r="P30">
+        <v>250</v>
+      </c>
+      <c r="Q30">
         <v>6</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R30">
         <v>8</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S30">
         <v>23.4</v>
       </c>
-      <c r="T30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W30" s="3">
+      <c r="T30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U30" t="s">
+        <v>51</v>
+      </c>
+      <c r="V30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W30">
         <v>796.6536479772358</v>
       </c>
-      <c r="X30" s="3">
+      <c r="X30">
         <v>645104.6426743495</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="Y30">
         <v>933.0530181161686</v>
       </c>
-      <c r="Z30" s="3">
+      <c r="Z30">
         <v>419924.5022001027</v>
       </c>
-      <c r="AA30" s="3">
+      <c r="AA30">
         <v>12</v>
       </c>
-      <c r="AB30" s="3">
+      <c r="AB30">
         <v>300</v>
       </c>
     </row>
@@ -3153,85 +3162,85 @@
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>3200</v>
       </c>
-      <c r="E31" s="3">
-        <v>250</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="E31">
+        <v>250</v>
+      </c>
+      <c r="F31">
         <v>3000</v>
       </c>
-      <c r="G31" s="3">
-        <v>40</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="G31">
+        <v>40</v>
+      </c>
+      <c r="H31">
         <v>-0.000478940607016116</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31">
         <v>0.7903120982000792</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31">
         <v>-1.472848652804647</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31" s="4" t="s">
+      <c r="K31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" t="s">
         <v>49</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31">
         <v>20</v>
       </c>
-      <c r="P31" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q31" s="3">
+      <c r="P31">
+        <v>250</v>
+      </c>
+      <c r="Q31">
         <v>6</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R31">
         <v>8</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S31">
         <v>23.4</v>
       </c>
-      <c r="T31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W31" s="3">
+      <c r="T31" t="s">
+        <v>51</v>
+      </c>
+      <c r="U31" t="s">
+        <v>51</v>
+      </c>
+      <c r="V31" t="s">
+        <v>51</v>
+      </c>
+      <c r="W31">
         <v>967.2103623329357</v>
       </c>
-      <c r="X31" s="3">
+      <c r="X31">
         <v>645104.6426743495</v>
       </c>
-      <c r="Y31" s="3">
+      <c r="Y31">
         <v>933.0530181161686</v>
       </c>
-      <c r="Z31" s="3">
+      <c r="Z31">
         <v>419924.5022001027</v>
       </c>
-      <c r="AA31" s="3">
+      <c r="AA31">
         <v>12</v>
       </c>
-      <c r="AB31" s="3">
+      <c r="AB31">
         <v>300</v>
       </c>
     </row>
@@ -3239,85 +3248,85 @@
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>3200</v>
       </c>
-      <c r="E32" s="3">
-        <v>250</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32">
+        <v>250</v>
+      </c>
+      <c r="F32">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
-        <v>40</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="G32">
+        <v>40</v>
+      </c>
+      <c r="H32">
         <v>-0.0006791915925622073</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32">
         <v>1.300978297894985</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32">
         <v>-2.399584282365249</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L32" s="4" t="s">
+      <c r="K32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" t="s">
         <v>49</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32">
         <v>20</v>
       </c>
-      <c r="P32" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="P32">
+        <v>250</v>
+      </c>
+      <c r="Q32">
         <v>6</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32">
         <v>8</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32">
         <v>23.4</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="T32" t="s">
+        <v>51</v>
+      </c>
+      <c r="U32" t="s">
+        <v>51</v>
+      </c>
+      <c r="V32" t="s">
+        <v>51</v>
+      </c>
+      <c r="W32">
         <v>1072.322423898457</v>
       </c>
-      <c r="X32" s="3">
+      <c r="X32">
         <v>645104.6426743495</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Y32">
         <v>933.0530181161686</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="Z32">
         <v>419924.5022001027</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AA32">
         <v>12</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AB32">
         <v>300</v>
       </c>
     </row>
@@ -3325,85 +3334,85 @@
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>3200</v>
       </c>
-      <c r="E33" s="3">
-        <v>250</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="E33">
+        <v>250</v>
+      </c>
+      <c r="F33">
         <v>3000</v>
       </c>
-      <c r="G33" s="3">
-        <v>40</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="G33">
+        <v>40</v>
+      </c>
+      <c r="H33">
         <v>-0.0008818521148494991</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33">
         <v>1.822080195796587</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33">
         <v>-3.360341175049601</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33" s="4" t="s">
+      <c r="K33" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" t="s">
         <v>49</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33">
         <v>20</v>
       </c>
-      <c r="P33" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="P33">
+        <v>250</v>
+      </c>
+      <c r="Q33">
         <v>6</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33">
         <v>8</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33">
         <v>23.4</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="T33" t="s">
+        <v>51</v>
+      </c>
+      <c r="U33" t="s">
+        <v>51</v>
+      </c>
+      <c r="V33" t="s">
+        <v>51</v>
+      </c>
+      <c r="W33">
         <v>1166.229471612184</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33">
         <v>645104.6426743495</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33">
         <v>933.0530181161686</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="Z33">
         <v>419924.5022001027</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AA33">
         <v>12</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AB33">
         <v>300</v>
       </c>
     </row>
@@ -3411,85 +3420,85 @@
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>3200</v>
       </c>
-      <c r="E34" s="3">
-        <v>250</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="E34">
+        <v>250</v>
+      </c>
+      <c r="F34">
         <v>3000</v>
       </c>
-      <c r="G34" s="3">
-        <v>40</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="G34">
+        <v>40</v>
+      </c>
+      <c r="H34">
         <v>-0.001084107467471146</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34">
         <v>2.355990479787704</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34">
         <v>-4.325875883939322</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L34" s="4" t="s">
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" t="s">
         <v>49</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34">
         <v>20</v>
       </c>
-      <c r="P34" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q34" s="3">
+      <c r="P34">
+        <v>250</v>
+      </c>
+      <c r="Q34">
         <v>6</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R34">
         <v>8</v>
       </c>
-      <c r="S34" s="3">
+      <c r="S34">
         <v>23.4</v>
       </c>
-      <c r="T34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W34" s="3">
+      <c r="T34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U34" t="s">
+        <v>51</v>
+      </c>
+      <c r="V34" t="s">
+        <v>51</v>
+      </c>
+      <c r="W34">
         <v>1255.696893764568</v>
       </c>
-      <c r="X34" s="3">
+      <c r="X34">
         <v>645104.6426743495</v>
       </c>
-      <c r="Y34" s="3">
+      <c r="Y34">
         <v>933.0530181161686</v>
       </c>
-      <c r="Z34" s="3">
+      <c r="Z34">
         <v>419924.5022001027</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="AA34">
         <v>12</v>
       </c>
-      <c r="AB34" s="3">
+      <c r="AB34">
         <v>300</v>
       </c>
     </row>
@@ -3497,85 +3506,85 @@
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>3200</v>
       </c>
-      <c r="E35" s="3">
-        <v>250</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="E35">
+        <v>250</v>
+      </c>
+      <c r="F35">
         <v>3000</v>
       </c>
-      <c r="G35" s="3">
-        <v>40</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="G35">
+        <v>40</v>
+      </c>
+      <c r="H35">
         <v>-0.001274153809381857</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35">
         <v>2.864548877764498</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35">
         <v>-5.197303567374581</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L35" s="4" t="s">
+      <c r="K35" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" t="s">
         <v>49</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35">
         <v>20</v>
       </c>
-      <c r="P35" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="P35">
+        <v>250</v>
+      </c>
+      <c r="Q35">
         <v>6</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35">
         <v>8</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35">
         <v>23.4</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="T35" t="s">
+        <v>51</v>
+      </c>
+      <c r="U35" t="s">
+        <v>51</v>
+      </c>
+      <c r="V35" t="s">
+        <v>51</v>
+      </c>
+      <c r="W35">
         <v>1291.964674302417</v>
       </c>
-      <c r="X35" s="3">
+      <c r="X35">
         <v>645104.6426743495</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Y35">
         <v>933.0530181161686</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="Z35">
         <v>419924.5022001027</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AA35">
         <v>12</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AB35">
         <v>300</v>
       </c>
     </row>
@@ -3583,85 +3592,85 @@
       <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36">
         <v>3200</v>
       </c>
-      <c r="E36" s="3">
-        <v>250</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36">
+        <v>250</v>
+      </c>
+      <c r="F36">
         <v>3000</v>
       </c>
-      <c r="G36" s="3">
-        <v>40</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="G36">
+        <v>40</v>
+      </c>
+      <c r="H36">
         <v>-0.001432134163760973</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36">
         <v>3.063360210322021</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36">
         <v>-5.586452160086179</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L36" s="4" t="s">
+      <c r="K36" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" t="s">
         <v>49</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36">
         <v>20</v>
       </c>
-      <c r="P36" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q36" s="3">
+      <c r="P36">
+        <v>250</v>
+      </c>
+      <c r="Q36">
         <v>6</v>
       </c>
-      <c r="R36" s="3">
+      <c r="R36">
         <v>8</v>
       </c>
-      <c r="S36" s="3">
+      <c r="S36">
         <v>23.4</v>
       </c>
-      <c r="T36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W36" s="3">
+      <c r="T36" t="s">
+        <v>51</v>
+      </c>
+      <c r="U36" t="s">
+        <v>51</v>
+      </c>
+      <c r="V36" t="s">
+        <v>51</v>
+      </c>
+      <c r="W36">
         <v>1106.331785899132</v>
       </c>
-      <c r="X36" s="3">
+      <c r="X36">
         <v>645104.6426743495</v>
       </c>
-      <c r="Y36" s="3">
+      <c r="Y36">
         <v>933.0530181161686</v>
       </c>
-      <c r="Z36" s="3">
+      <c r="Z36">
         <v>419924.5022001027</v>
       </c>
-      <c r="AA36" s="3">
+      <c r="AA36">
         <v>12</v>
       </c>
-      <c r="AB36" s="3">
+      <c r="AB36">
         <v>300</v>
       </c>
     </row>
@@ -3669,85 +3678,85 @@
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>3200</v>
       </c>
-      <c r="E37" s="3">
-        <v>250</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37">
+        <v>250</v>
+      </c>
+      <c r="F37">
         <v>3000</v>
       </c>
-      <c r="G37" s="3">
-        <v>40</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="G37">
+        <v>40</v>
+      </c>
+      <c r="H37">
         <v>-0.001479098704169524</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37">
         <v>2.651931720830479</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37">
         <v>-5.009511524646054</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L37" s="4" t="s">
+      <c r="K37" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" t="s">
         <v>49</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37">
         <v>20</v>
       </c>
-      <c r="P37" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q37" s="3">
+      <c r="P37">
+        <v>250</v>
+      </c>
+      <c r="Q37">
         <v>6</v>
       </c>
-      <c r="R37" s="3">
+      <c r="R37">
         <v>8</v>
       </c>
-      <c r="S37" s="3">
+      <c r="S37">
         <v>23.4</v>
       </c>
-      <c r="T37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W37" s="3">
+      <c r="T37" t="s">
+        <v>51</v>
+      </c>
+      <c r="U37" t="s">
+        <v>51</v>
+      </c>
+      <c r="V37" t="s">
+        <v>51</v>
+      </c>
+      <c r="W37">
         <v>1176.951067970164</v>
       </c>
-      <c r="X37" s="3">
+      <c r="X37">
         <v>645104.6426743495</v>
       </c>
-      <c r="Y37" s="3">
+      <c r="Y37">
         <v>933.0530181161686</v>
       </c>
-      <c r="Z37" s="3">
+      <c r="Z37">
         <v>419924.5022001027</v>
       </c>
-      <c r="AA37" s="3">
+      <c r="AA37">
         <v>12</v>
       </c>
-      <c r="AB37" s="3">
+      <c r="AB37">
         <v>300</v>
       </c>
     </row>
@@ -3755,85 +3764,85 @@
       <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>3200</v>
       </c>
-      <c r="E38" s="3">
-        <v>250</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="E38">
+        <v>250</v>
+      </c>
+      <c r="F38">
         <v>3000</v>
       </c>
-      <c r="G38" s="3">
-        <v>40</v>
-      </c>
-      <c r="H38" s="3">
+      <c r="G38">
+        <v>40</v>
+      </c>
+      <c r="H38">
         <v>-0.001562176701053744</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38">
         <v>2.093370857271952</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38">
         <v>-4.554669367815359</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" s="4" t="s">
+      <c r="K38" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" t="s">
         <v>49</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38">
         <v>20</v>
       </c>
-      <c r="P38" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q38" s="3">
+      <c r="P38">
+        <v>250</v>
+      </c>
+      <c r="Q38">
         <v>6</v>
       </c>
-      <c r="R38" s="3">
+      <c r="R38">
         <v>8</v>
       </c>
-      <c r="S38" s="3">
+      <c r="S38">
         <v>23.4</v>
       </c>
-      <c r="T38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W38" s="3">
+      <c r="T38" t="s">
+        <v>51</v>
+      </c>
+      <c r="U38" t="s">
+        <v>51</v>
+      </c>
+      <c r="V38" t="s">
+        <v>51</v>
+      </c>
+      <c r="W38">
         <v>1268.968948647665</v>
       </c>
-      <c r="X38" s="3">
+      <c r="X38">
         <v>645104.6426743495</v>
       </c>
-      <c r="Y38" s="3">
+      <c r="Y38">
         <v>933.0530181161686</v>
       </c>
-      <c r="Z38" s="3">
+      <c r="Z38">
         <v>419924.5022001027</v>
       </c>
-      <c r="AA38" s="3">
+      <c r="AA38">
         <v>12</v>
       </c>
-      <c r="AB38" s="3">
+      <c r="AB38">
         <v>300</v>
       </c>
     </row>
@@ -3841,85 +3850,85 @@
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>3200</v>
       </c>
-      <c r="E39" s="3">
-        <v>250</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="E39">
+        <v>250</v>
+      </c>
+      <c r="F39">
         <v>3000</v>
       </c>
-      <c r="G39" s="3">
-        <v>40</v>
-      </c>
-      <c r="H39" s="3">
+      <c r="G39">
+        <v>40</v>
+      </c>
+      <c r="H39">
         <v>-0.001660045133350061</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39">
         <v>1.728600868699584</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39">
         <v>-4.367058889292286</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L39" s="4" t="s">
+      <c r="K39" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" t="s">
         <v>49</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39">
         <v>20</v>
       </c>
-      <c r="P39" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q39" s="3">
+      <c r="P39">
+        <v>250</v>
+      </c>
+      <c r="Q39">
         <v>6</v>
       </c>
-      <c r="R39" s="3">
+      <c r="R39">
         <v>8</v>
       </c>
-      <c r="S39" s="3">
+      <c r="S39">
         <v>23.4</v>
       </c>
-      <c r="T39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W39" s="3">
+      <c r="T39" t="s">
+        <v>51</v>
+      </c>
+      <c r="U39" t="s">
+        <v>51</v>
+      </c>
+      <c r="V39" t="s">
+        <v>51</v>
+      </c>
+      <c r="W39">
         <v>1078.928273023787</v>
       </c>
-      <c r="X39" s="3">
+      <c r="X39">
         <v>645104.6426743495</v>
       </c>
-      <c r="Y39" s="3">
+      <c r="Y39">
         <v>933.0530181161686</v>
       </c>
-      <c r="Z39" s="3">
+      <c r="Z39">
         <v>419924.5022001027</v>
       </c>
-      <c r="AA39" s="3">
+      <c r="AA39">
         <v>12</v>
       </c>
-      <c r="AB39" s="3">
+      <c r="AB39">
         <v>300</v>
       </c>
     </row>
@@ -3927,85 +3936,85 @@
       <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>4200</v>
       </c>
-      <c r="E40" s="3">
-        <v>250</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="E40">
+        <v>250</v>
+      </c>
+      <c r="F40">
         <v>3000</v>
       </c>
-      <c r="G40" s="3">
-        <v>40</v>
-      </c>
-      <c r="H40" s="3">
+      <c r="G40">
+        <v>40</v>
+      </c>
+      <c r="H40">
         <v>-0.001829583372189306</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40">
         <v>1.674105910423418</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40">
         <v>-4.652046969820948</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L40" s="4" t="s">
+      <c r="K40" t="s">
+        <v>48</v>
+      </c>
+      <c r="L40" t="s">
         <v>49</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40">
         <v>20</v>
       </c>
-      <c r="P40" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q40" s="3">
+      <c r="P40">
+        <v>250</v>
+      </c>
+      <c r="Q40">
         <v>6</v>
       </c>
-      <c r="R40" s="3">
+      <c r="R40">
         <v>8</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S40">
         <v>23.4</v>
       </c>
-      <c r="T40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W40" s="3">
+      <c r="T40" t="s">
+        <v>51</v>
+      </c>
+      <c r="U40" t="s">
+        <v>51</v>
+      </c>
+      <c r="V40" t="s">
+        <v>51</v>
+      </c>
+      <c r="W40">
         <v>869.9372594250997</v>
       </c>
-      <c r="X40" s="3">
+      <c r="X40">
         <v>645104.6426743495</v>
       </c>
-      <c r="Y40" s="3">
+      <c r="Y40">
         <v>904.7786842338604</v>
       </c>
-      <c r="Z40" s="3">
+      <c r="Z40">
         <v>419906.1238830792</v>
       </c>
-      <c r="AA40" s="3">
+      <c r="AA40">
         <v>12</v>
       </c>
-      <c r="AB40" s="3">
+      <c r="AB40">
         <v>300</v>
       </c>
     </row>
@@ -4013,85 +4022,85 @@
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
-        <v>250</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="E41">
+        <v>250</v>
+      </c>
+      <c r="F41">
         <v>3000</v>
       </c>
-      <c r="G41" s="3">
-        <v>40</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="G41">
+        <v>40</v>
+      </c>
+      <c r="H41">
         <v>-0.002167653929410212</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41">
         <v>1.066708721951161</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41">
         <v>-5.723676424926549</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L41" s="4" t="s">
+      <c r="K41" t="s">
+        <v>48</v>
+      </c>
+      <c r="L41" t="s">
         <v>49</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41">
         <v>20</v>
       </c>
-      <c r="P41" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="P41">
+        <v>250</v>
+      </c>
+      <c r="Q41">
         <v>6</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41">
         <v>8</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41">
         <v>23.4</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="T41" t="s">
+        <v>51</v>
+      </c>
+      <c r="U41" t="s">
+        <v>51</v>
+      </c>
+      <c r="V41" t="s">
+        <v>51</v>
+      </c>
+      <c r="W41">
         <v>681.1408892383914</v>
       </c>
-      <c r="X41" s="3">
+      <c r="X41">
         <v>1707.629936490925</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Y41">
         <v>904.7786842338604</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="Z41">
         <v>1698.065603471111</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AA41">
         <v>12</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AB41">
         <v>300</v>
       </c>
     </row>
@@ -4099,85 +4108,85 @@
       <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>3000</v>
       </c>
-      <c r="E42" s="3">
-        <v>250</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="E42">
+        <v>250</v>
+      </c>
+      <c r="F42">
         <v>3000</v>
       </c>
-      <c r="G42" s="3">
-        <v>40</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="G42">
+        <v>40</v>
+      </c>
+      <c r="H42">
         <v>-0.002164350051378936</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42">
         <v>0.8220316302790266</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42">
         <v>-6.105859793161073</v>
       </c>
-      <c r="K42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L42" s="4" t="s">
+      <c r="K42" t="s">
+        <v>48</v>
+      </c>
+      <c r="L42" t="s">
         <v>49</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42">
         <v>20</v>
       </c>
-      <c r="P42" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="P42">
+        <v>250</v>
+      </c>
+      <c r="Q42">
         <v>6</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42">
         <v>23.4</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="T42" t="s">
+        <v>51</v>
+      </c>
+      <c r="U42" t="s">
+        <v>51</v>
+      </c>
+      <c r="V42" t="s">
+        <v>51</v>
+      </c>
+      <c r="W42">
         <v>442.4538956977505</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X42">
         <v>1707.629936490925</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42">
         <v>904.7786842338604</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z42">
         <v>1698.065603471111</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AA42">
         <v>12</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AB42">
         <v>300</v>
       </c>
     </row>
@@ -4185,85 +4194,85 @@
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
-        <v>250</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="E43">
+        <v>250</v>
+      </c>
+      <c r="F43">
         <v>3000</v>
       </c>
-      <c r="G43" s="3">
-        <v>40</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="G43">
+        <v>40</v>
+      </c>
+      <c r="H43">
         <v>-0.002119541646999561</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43">
         <v>1.151934003555438</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43">
         <v>-5.839378339048495</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L43" s="4" t="s">
+      <c r="K43" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" t="s">
         <v>49</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43">
         <v>20</v>
       </c>
-      <c r="P43" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="P43">
+        <v>250</v>
+      </c>
+      <c r="Q43">
         <v>6</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43">
         <v>8</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43">
         <v>23.4</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="T43" t="s">
+        <v>51</v>
+      </c>
+      <c r="U43" t="s">
+        <v>51</v>
+      </c>
+      <c r="V43" t="s">
+        <v>51</v>
+      </c>
+      <c r="W43">
         <v>880.2455834725284</v>
       </c>
-      <c r="X43" s="3">
+      <c r="X43">
         <v>2238.892583399213</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Y43">
         <v>814.3008158104743</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="Z43">
         <v>1984.575709486297</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AA43">
         <v>12</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AB43">
         <v>300</v>
       </c>
     </row>
@@ -4271,85 +4280,85 @@
       <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
-        <v>250</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="E44">
+        <v>250</v>
+      </c>
+      <c r="F44">
         <v>900</v>
       </c>
-      <c r="G44" s="3">
-        <v>40</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="G44">
+        <v>40</v>
+      </c>
+      <c r="H44">
         <v>-0.00314948203918227</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44">
         <v>1.711574390795664</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44">
         <v>-7.459881295525811</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L44" s="4" t="s">
+      <c r="K44" t="s">
+        <v>48</v>
+      </c>
+      <c r="L44" t="s">
         <v>49</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44">
         <v>20</v>
       </c>
-      <c r="P44" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="P44">
+        <v>250</v>
+      </c>
+      <c r="Q44">
         <v>6</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44">
         <v>8</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44">
         <v>23.4</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="T44" t="s">
+        <v>51</v>
+      </c>
+      <c r="U44" t="s">
+        <v>51</v>
+      </c>
+      <c r="V44" t="s">
+        <v>51</v>
+      </c>
+      <c r="W44">
         <v>609.4497793363358</v>
       </c>
-      <c r="X44" s="3">
+      <c r="X44">
         <v>193531.3928023049</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Y44">
         <v>244.2902447431423</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="Z44">
         <v>125954.1939805812</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AA44">
         <v>12</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AB44">
         <v>300</v>
       </c>
     </row>
@@ -4357,85 +4366,85 @@
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
-        <v>250</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="E45">
+        <v>250</v>
+      </c>
+      <c r="F45">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
-        <v>40</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="G45">
+        <v>40</v>
+      </c>
+      <c r="H45">
         <v>-0.0002870613711864525</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45">
         <v>0.344158271594925</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45">
         <v>-0.921018541654878</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L45" s="4" t="s">
+      <c r="K45" t="s">
+        <v>48</v>
+      </c>
+      <c r="L45" t="s">
         <v>49</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45">
         <v>20</v>
       </c>
-      <c r="P45" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="P45">
+        <v>250</v>
+      </c>
+      <c r="Q45">
         <v>6</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45">
         <v>23.4</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="T45" t="s">
+        <v>51</v>
+      </c>
+      <c r="U45" t="s">
+        <v>51</v>
+      </c>
+      <c r="V45" t="s">
+        <v>51</v>
+      </c>
+      <c r="W45">
         <v>77.88126391077078</v>
       </c>
-      <c r="X45" s="3">
+      <c r="X45">
         <v>344055.8094263197</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Y45">
         <v>497.6282763286233</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="Z45">
         <v>223959.7345067214</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AA45">
         <v>12</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AB45">
         <v>300</v>
       </c>
     </row>
@@ -4443,85 +4452,85 @@
       <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46">
         <v>3200</v>
       </c>
-      <c r="E46" s="3">
-        <v>250</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="E46">
+        <v>250</v>
+      </c>
+      <c r="F46">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
-        <v>40</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="G46">
+        <v>40</v>
+      </c>
+      <c r="H46">
         <v>-0.0004842474671274719</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46">
         <v>0.5667670339013033</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46">
         <v>-1.592909964759111</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L46" s="4" t="s">
+      <c r="K46" t="s">
+        <v>48</v>
+      </c>
+      <c r="L46" t="s">
         <v>49</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46">
         <v>20</v>
       </c>
-      <c r="P46" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="P46">
+        <v>250</v>
+      </c>
+      <c r="Q46">
         <v>6</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46">
         <v>8</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46">
         <v>23.4</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="T46" t="s">
+        <v>51</v>
+      </c>
+      <c r="U46" t="s">
+        <v>51</v>
+      </c>
+      <c r="V46" t="s">
+        <v>51</v>
+      </c>
+      <c r="W46">
         <v>115.63163601251</v>
       </c>
-      <c r="X46" s="3">
+      <c r="X46">
         <v>344055.8094263197</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Y46">
         <v>497.6282763286233</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="Z46">
         <v>223959.7345067214</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AA46">
         <v>12</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AB46">
         <v>300</v>
       </c>
     </row>
@@ -4529,85 +4538,85 @@
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47">
         <v>3200</v>
       </c>
-      <c r="E47" s="3">
-        <v>250</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47">
+        <v>250</v>
+      </c>
+      <c r="F47">
         <v>1600</v>
       </c>
-      <c r="G47" s="3">
-        <v>40</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="G47">
+        <v>40</v>
+      </c>
+      <c r="H47">
         <v>-0.0006737939445486196</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47">
         <v>0.7549469979699546</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47">
         <v>-2.21642033399571</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L47" s="4" t="s">
+      <c r="K47" t="s">
+        <v>48</v>
+      </c>
+      <c r="L47" t="s">
         <v>49</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47">
         <v>20</v>
       </c>
-      <c r="P47" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="P47">
+        <v>250</v>
+      </c>
+      <c r="Q47">
         <v>6</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47">
         <v>23.4</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="T47" t="s">
+        <v>51</v>
+      </c>
+      <c r="U47" t="s">
+        <v>51</v>
+      </c>
+      <c r="V47" t="s">
+        <v>51</v>
+      </c>
+      <c r="W47">
         <v>103.1741219038307</v>
       </c>
-      <c r="X47" s="3">
+      <c r="X47">
         <v>344055.8094263197</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Y47">
         <v>497.6282763286233</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="Z47">
         <v>223959.7345067214</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AA47">
         <v>12</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AB47">
         <v>300</v>
       </c>
     </row>
@@ -4615,85 +4624,85 @@
       <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>3200</v>
       </c>
-      <c r="E48" s="3">
-        <v>250</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E48">
+        <v>250</v>
+      </c>
+      <c r="F48">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
-        <v>40</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="G48">
+        <v>40</v>
+      </c>
+      <c r="H48">
         <v>-0.0008634598427521989</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48">
         <v>0.8461187632873134</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48">
         <v>-2.697824230618612</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L48" s="4" t="s">
+      <c r="K48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48" t="s">
         <v>49</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48">
         <v>20</v>
       </c>
-      <c r="P48" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="P48">
+        <v>250</v>
+      </c>
+      <c r="Q48">
         <v>6</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48">
         <v>8</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48">
         <v>23.4</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="T48" t="s">
+        <v>51</v>
+      </c>
+      <c r="U48" t="s">
+        <v>51</v>
+      </c>
+      <c r="V48" t="s">
+        <v>51</v>
+      </c>
+      <c r="W48">
         <v>93.26387991419899</v>
       </c>
-      <c r="X48" s="3">
+      <c r="X48">
         <v>344055.8094263197</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Y48">
         <v>497.6282763286233</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="Z48">
         <v>223959.7345067214</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AA48">
         <v>12</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AB48">
         <v>300</v>
       </c>
     </row>
@@ -4701,85 +4710,85 @@
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49">
         <v>3200</v>
       </c>
-      <c r="E49" s="3">
-        <v>250</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49">
+        <v>250</v>
+      </c>
+      <c r="F49">
         <v>1600</v>
       </c>
-      <c r="G49" s="3">
-        <v>40</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="G49">
+        <v>40</v>
+      </c>
+      <c r="H49">
         <v>-0.001052878247648603</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49">
         <v>0.9155369384538437</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49">
         <v>-3.100948166559482</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L49" s="4" t="s">
+      <c r="K49" t="s">
+        <v>48</v>
+      </c>
+      <c r="L49" t="s">
         <v>49</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49">
         <v>20</v>
       </c>
-      <c r="P49" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="P49">
+        <v>250</v>
+      </c>
+      <c r="Q49">
         <v>6</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49">
         <v>23.4</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="T49" t="s">
+        <v>51</v>
+      </c>
+      <c r="U49" t="s">
+        <v>51</v>
+      </c>
+      <c r="V49" t="s">
+        <v>51</v>
+      </c>
+      <c r="W49">
         <v>92.1744007428136</v>
       </c>
-      <c r="X49" s="3">
+      <c r="X49">
         <v>344055.8094263197</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y49">
         <v>497.6282763286233</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="Z49">
         <v>223959.7345067214</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AA49">
         <v>12</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AB49">
         <v>300</v>
       </c>
     </row>
@@ -4787,85 +4796,85 @@
       <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50">
         <v>3200</v>
       </c>
-      <c r="E50" s="3">
-        <v>250</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="E50">
+        <v>250</v>
+      </c>
+      <c r="F50">
         <v>1600</v>
       </c>
-      <c r="G50" s="3">
-        <v>40</v>
-      </c>
-      <c r="H50" s="3">
+      <c r="G50">
+        <v>40</v>
+      </c>
+      <c r="H50">
         <v>-0.001241831307123872</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50">
         <v>0.9810417158594713</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50">
         <v>-3.60250029419582</v>
       </c>
-      <c r="K50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L50" s="4" t="s">
+      <c r="K50" t="s">
+        <v>48</v>
+      </c>
+      <c r="L50" t="s">
         <v>49</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50">
         <v>20</v>
       </c>
-      <c r="P50" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q50" s="3">
+      <c r="P50">
+        <v>250</v>
+      </c>
+      <c r="Q50">
         <v>6</v>
       </c>
-      <c r="R50" s="3">
+      <c r="R50">
         <v>8</v>
       </c>
-      <c r="S50" s="3">
+      <c r="S50">
         <v>23.4</v>
       </c>
-      <c r="T50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W50" s="3">
+      <c r="T50" t="s">
+        <v>51</v>
+      </c>
+      <c r="U50" t="s">
+        <v>51</v>
+      </c>
+      <c r="V50" t="s">
+        <v>51</v>
+      </c>
+      <c r="W50">
         <v>88.01887353053485</v>
       </c>
-      <c r="X50" s="3">
+      <c r="X50">
         <v>344055.8094263197</v>
       </c>
-      <c r="Y50" s="3">
+      <c r="Y50">
         <v>497.6282763286233</v>
       </c>
-      <c r="Z50" s="3">
+      <c r="Z50">
         <v>223959.7345067214</v>
       </c>
-      <c r="AA50" s="3">
+      <c r="AA50">
         <v>12</v>
       </c>
-      <c r="AB50" s="3">
+      <c r="AB50">
         <v>300</v>
       </c>
     </row>
@@ -4873,85 +4882,85 @@
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51">
         <v>3200</v>
       </c>
-      <c r="E51" s="3">
-        <v>250</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="E51">
+        <v>250</v>
+      </c>
+      <c r="F51">
         <v>1600</v>
       </c>
-      <c r="G51" s="3">
-        <v>40</v>
-      </c>
-      <c r="H51" s="3">
+      <c r="G51">
+        <v>40</v>
+      </c>
+      <c r="H51">
         <v>-0.001428952274427362</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51">
         <v>0.8334747980416674</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51">
         <v>-4.254603484170369</v>
       </c>
-      <c r="K51" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L51" s="4" t="s">
+      <c r="K51" t="s">
+        <v>48</v>
+      </c>
+      <c r="L51" t="s">
         <v>49</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51">
         <v>20</v>
       </c>
-      <c r="P51" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q51" s="3">
+      <c r="P51">
+        <v>250</v>
+      </c>
+      <c r="Q51">
         <v>6</v>
       </c>
-      <c r="R51" s="3">
+      <c r="R51">
         <v>8</v>
       </c>
-      <c r="S51" s="3">
+      <c r="S51">
         <v>23.4</v>
       </c>
-      <c r="T51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W51" s="3">
+      <c r="T51" t="s">
+        <v>51</v>
+      </c>
+      <c r="U51" t="s">
+        <v>51</v>
+      </c>
+      <c r="V51" t="s">
+        <v>51</v>
+      </c>
+      <c r="W51">
         <v>51.47556877376338</v>
       </c>
-      <c r="X51" s="3">
+      <c r="X51">
         <v>344055.8094263197</v>
       </c>
-      <c r="Y51" s="3">
+      <c r="Y51">
         <v>497.6282763286233</v>
       </c>
-      <c r="Z51" s="3">
+      <c r="Z51">
         <v>223959.7345067214</v>
       </c>
-      <c r="AA51" s="3">
+      <c r="AA51">
         <v>12</v>
       </c>
-      <c r="AB51" s="3">
+      <c r="AB51">
         <v>300</v>
       </c>
     </row>
@@ -4959,85 +4968,85 @@
       <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52">
         <v>3200</v>
       </c>
-      <c r="E52" s="3">
-        <v>250</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="E52">
+        <v>250</v>
+      </c>
+      <c r="F52">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
-        <v>40</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="G52">
+        <v>40</v>
+      </c>
+      <c r="H52">
         <v>-0.001616600911766831</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52">
         <v>0.5390537286362339</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52">
         <v>-4.038254733417828</v>
       </c>
-      <c r="K52" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L52" s="4" t="s">
+      <c r="K52" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" t="s">
         <v>49</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52">
         <v>20</v>
       </c>
-      <c r="P52" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="P52">
+        <v>250</v>
+      </c>
+      <c r="Q52">
         <v>6</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52">
         <v>23.4</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="T52" t="s">
+        <v>51</v>
+      </c>
+      <c r="U52" t="s">
+        <v>51</v>
+      </c>
+      <c r="V52" t="s">
+        <v>51</v>
+      </c>
+      <c r="W52">
         <v>55.89224414494598</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52">
         <v>344055.8094263197</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Y52">
         <v>497.6282763286233</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="Z52">
         <v>223959.7345067214</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AA52">
         <v>12</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AB52">
         <v>300</v>
       </c>
     </row>
@@ -5045,85 +5054,85 @@
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53">
         <v>3200</v>
       </c>
-      <c r="E53" s="3">
-        <v>250</v>
-      </c>
-      <c r="F53" s="3">
+      <c r="E53">
+        <v>250</v>
+      </c>
+      <c r="F53">
         <v>1600</v>
       </c>
-      <c r="G53" s="3">
-        <v>40</v>
-      </c>
-      <c r="H53" s="3">
+      <c r="G53">
+        <v>40</v>
+      </c>
+      <c r="H53">
         <v>-0.001810936817342853</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53">
         <v>0.3076204937626903</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53">
         <v>-4.288354513412841</v>
       </c>
-      <c r="K53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L53" s="4" t="s">
+      <c r="K53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" t="s">
         <v>49</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O53">
         <v>20</v>
       </c>
-      <c r="P53" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q53" s="3">
+      <c r="P53">
+        <v>250</v>
+      </c>
+      <c r="Q53">
         <v>6</v>
       </c>
-      <c r="R53" s="3">
+      <c r="R53">
         <v>8</v>
       </c>
-      <c r="S53" s="3">
+      <c r="S53">
         <v>23.4</v>
       </c>
-      <c r="T53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W53" s="3">
+      <c r="T53" t="s">
+        <v>51</v>
+      </c>
+      <c r="U53" t="s">
+        <v>51</v>
+      </c>
+      <c r="V53" t="s">
+        <v>51</v>
+      </c>
+      <c r="W53">
         <v>42.13799709439941</v>
       </c>
-      <c r="X53" s="3">
+      <c r="X53">
         <v>344055.8094263197</v>
       </c>
-      <c r="Y53" s="3">
+      <c r="Y53">
         <v>497.6282763286233</v>
       </c>
-      <c r="Z53" s="3">
+      <c r="Z53">
         <v>223959.7345067214</v>
       </c>
-      <c r="AA53" s="3">
+      <c r="AA53">
         <v>12</v>
       </c>
-      <c r="AB53" s="3">
+      <c r="AB53">
         <v>300</v>
       </c>
     </row>
@@ -5131,85 +5140,85 @@
       <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54">
         <v>3200</v>
       </c>
-      <c r="E54" s="3">
-        <v>250</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="E54">
+        <v>250</v>
+      </c>
+      <c r="F54">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
-        <v>40</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="G54">
+        <v>40</v>
+      </c>
+      <c r="H54">
         <v>-0.002016712348865203</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54">
         <v>0.2739800463657762</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54">
         <v>-4.378522506612149</v>
       </c>
-      <c r="K54" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L54" s="4" t="s">
+      <c r="K54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" t="s">
         <v>49</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54">
         <v>20</v>
       </c>
-      <c r="P54" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="P54">
+        <v>250</v>
+      </c>
+      <c r="Q54">
         <v>6</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54">
         <v>8</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54">
         <v>23.4</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V54" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="T54" t="s">
+        <v>51</v>
+      </c>
+      <c r="U54" t="s">
+        <v>51</v>
+      </c>
+      <c r="V54" t="s">
+        <v>51</v>
+      </c>
+      <c r="W54">
         <v>82.26369482379791</v>
       </c>
-      <c r="X54" s="3">
+      <c r="X54">
         <v>344055.8094263197</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Y54">
         <v>497.6282763286233</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="Z54">
         <v>223959.7345067214</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AA54">
         <v>12</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AB54">
         <v>300</v>
       </c>
     </row>
@@ -5217,85 +5226,85 @@
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55">
         <v>4200</v>
       </c>
-      <c r="E55" s="3">
-        <v>250</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="E55">
+        <v>250</v>
+      </c>
+      <c r="F55">
         <v>1600</v>
       </c>
-      <c r="G55" s="3">
-        <v>40</v>
-      </c>
-      <c r="H55" s="3">
+      <c r="G55">
+        <v>40</v>
+      </c>
+      <c r="H55">
         <v>-0.002264048141992609</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55">
         <v>0.700787028718294</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55">
         <v>-5.621027115935343</v>
       </c>
-      <c r="K55" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L55" s="4" t="s">
+      <c r="K55" t="s">
+        <v>48</v>
+      </c>
+      <c r="L55" t="s">
         <v>49</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M55">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N55">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O55" s="3">
+      <c r="O55">
         <v>20</v>
       </c>
-      <c r="P55" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q55" s="3">
+      <c r="P55">
+        <v>250</v>
+      </c>
+      <c r="Q55">
         <v>6</v>
       </c>
-      <c r="R55" s="3">
+      <c r="R55">
         <v>8</v>
       </c>
-      <c r="S55" s="3">
+      <c r="S55">
         <v>23.4</v>
       </c>
-      <c r="T55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W55" s="3">
+      <c r="T55" t="s">
+        <v>51</v>
+      </c>
+      <c r="U55" t="s">
+        <v>51</v>
+      </c>
+      <c r="V55" t="s">
+        <v>51</v>
+      </c>
+      <c r="W55">
         <v>107.9822021796376</v>
       </c>
-      <c r="X55" s="3">
+      <c r="X55">
         <v>344055.8094263197</v>
       </c>
-      <c r="Y55" s="3">
+      <c r="Y55">
         <v>482.5486315913923</v>
       </c>
-      <c r="Z55" s="3">
+      <c r="Z55">
         <v>223949.9327376422</v>
       </c>
-      <c r="AA55" s="3">
+      <c r="AA55">
         <v>12</v>
       </c>
-      <c r="AB55" s="3">
+      <c r="AB55">
         <v>300</v>
       </c>
     </row>
@@ -5303,85 +5312,85 @@
       <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56">
         <v>3000</v>
       </c>
-      <c r="E56" s="3">
-        <v>250</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="E56">
+        <v>250</v>
+      </c>
+      <c r="F56">
         <v>1600</v>
       </c>
-      <c r="G56" s="3">
-        <v>40</v>
-      </c>
-      <c r="H56" s="3">
+      <c r="G56">
+        <v>40</v>
+      </c>
+      <c r="H56">
         <v>-0.00254683280026619</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56">
         <v>-0.4360617632996658</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56">
         <v>-4.797946827250714</v>
       </c>
-      <c r="K56" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L56" s="4" t="s">
+      <c r="K56" t="s">
+        <v>48</v>
+      </c>
+      <c r="L56" t="s">
         <v>49</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M56">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N56">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O56" s="3">
+      <c r="O56">
         <v>20</v>
       </c>
-      <c r="P56" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q56" s="3">
+      <c r="P56">
+        <v>250</v>
+      </c>
+      <c r="Q56">
         <v>6</v>
       </c>
-      <c r="R56" s="3">
+      <c r="R56">
         <v>8</v>
       </c>
-      <c r="S56" s="3">
+      <c r="S56">
         <v>23.4</v>
       </c>
-      <c r="T56" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U56" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V56" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W56" s="3">
+      <c r="T56" t="s">
+        <v>51</v>
+      </c>
+      <c r="U56" t="s">
+        <v>51</v>
+      </c>
+      <c r="V56" t="s">
+        <v>51</v>
+      </c>
+      <c r="W56">
         <v>147.7694426643854</v>
       </c>
-      <c r="X56" s="3">
+      <c r="X56">
         <v>344055.8094263197</v>
       </c>
-      <c r="Y56" s="3">
+      <c r="Y56">
         <v>482.5486315913923</v>
       </c>
-      <c r="Z56" s="3">
+      <c r="Z56">
         <v>223949.9327376422</v>
       </c>
-      <c r="AA56" s="3">
+      <c r="AA56">
         <v>12</v>
       </c>
-      <c r="AB56" s="3">
+      <c r="AB56">
         <v>300</v>
       </c>
     </row>
@@ -5389,85 +5398,85 @@
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
-        <v>250</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="E57">
+        <v>250</v>
+      </c>
+      <c r="F57">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
-        <v>40</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="G57">
+        <v>40</v>
+      </c>
+      <c r="H57">
         <v>-0.002808808883168199</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57">
         <v>4.211869553927527</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57">
         <v>-9.302512612799195</v>
       </c>
-      <c r="K57" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L57" s="4" t="s">
+      <c r="K57" t="s">
+        <v>48</v>
+      </c>
+      <c r="L57" t="s">
         <v>49</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57">
         <v>20</v>
       </c>
-      <c r="P57" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="P57">
+        <v>250</v>
+      </c>
+      <c r="Q57">
         <v>6</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57">
         <v>8</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57">
         <v>23.4</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="T57" t="s">
+        <v>51</v>
+      </c>
+      <c r="U57" t="s">
+        <v>51</v>
+      </c>
+      <c r="V57" t="s">
+        <v>51</v>
+      </c>
+      <c r="W57">
         <v>718.7104562523612</v>
       </c>
-      <c r="X57" s="3">
+      <c r="X57">
         <v>344055.8094263197</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Y57">
         <v>482.5486315913923</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="Z57">
         <v>223949.9327376422</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AA57">
         <v>12</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AB57">
         <v>300</v>
       </c>
     </row>
@@ -5475,90 +5484,90 @@
       <c r="A58" s="2">
         <v>56</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
-        <v>250</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="E58">
+        <v>250</v>
+      </c>
+      <c r="F58">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
-        <v>40</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="G58">
+        <v>40</v>
+      </c>
+      <c r="H58">
         <v>-0.001623591242224617</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58">
         <v>0.667968463733874</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58">
         <v>-3.924127727739549</v>
       </c>
-      <c r="K58" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L58" s="4" t="s">
+      <c r="K58" t="s">
+        <v>48</v>
+      </c>
+      <c r="L58" t="s">
         <v>49</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58">
         <v>0.008854377448471461</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58">
         <v>0.004427188724235731</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58">
         <v>20</v>
       </c>
-      <c r="P58" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="P58">
+        <v>250</v>
+      </c>
+      <c r="Q58">
         <v>6</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58">
         <v>23.4</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="T58" t="s">
+        <v>51</v>
+      </c>
+      <c r="U58" t="s">
+        <v>51</v>
+      </c>
+      <c r="V58" t="s">
+        <v>51</v>
+      </c>
+      <c r="W58">
         <v>136.8146087044341</v>
       </c>
-      <c r="X58" s="3">
+      <c r="X58">
         <v>1070.11476020098</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Y58">
         <v>434.293768432253</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="Z58">
         <v>977.8655436116013</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AA58">
         <v>12</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AB58">
         <v>300</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="I1:I58">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -5570,7 +5579,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="J1:J58">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -5582,7 +5591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:S1048576">
+  <conditionalFormatting sqref="Q2:S58">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThanOrEqual">
       <formula>$I$2:$I$1048576</formula>
     </cfRule>
